--- a/Log/model_log.xlsx
+++ b/Log/model_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/hungyunlu/library/cloudstorage/box-box/hung-yun lu research file/projects/fscv/script/data/en_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/Script/Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDD04D3-EB60-DD44-BA28-7D1F873193BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81945DD-32C1-8A44-849E-99F80DBB6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{00FF9625-BC49-7B43-80E8-E947B345DFAB}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" firstSheet="3" activeTab="3" xr2:uid="{00FF9625-BC49-7B43-80E8-E947B345DFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="11" r:id="rId1"/>
@@ -181,12 +181,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,11 +209,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74FDA7-245B-2D4E-ADC1-47C2408CAA63}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="374" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -547,7 +556,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -557,17 +566,17 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -869,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D0898-CF82-294F-B2B4-09AECC58E543}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
